--- a/Annexes/Gantt V1.xlsx
+++ b/Annexes/Gantt V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stbnb\Documents\dev\dev_perso\ShareCookbook\Annexes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebasson\Documents\perso\ShareCookbook\Annexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50678B-5770-4091-9D32-ED42A8A95F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF22218B-DE3E-4173-A95C-277CC0DF261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20B1B3E5-BE17-45A0-B7D5-E405D2D7C6AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{20B1B3E5-BE17-45A0-B7D5-E405D2D7C6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>planification et de recherche</t>
   </si>
@@ -47,9 +47,6 @@
     <t>développement</t>
   </si>
   <si>
-    <t>déploiement</t>
-  </si>
-  <si>
     <t>suivi et de maintenance</t>
   </si>
   <si>
@@ -89,13 +86,10 @@
     <t>Semaine 12</t>
   </si>
   <si>
-    <t>Semaine 13</t>
-  </si>
-  <si>
-    <t>Semaine 14</t>
-  </si>
-  <si>
     <t>tests et correction des bugs</t>
+  </si>
+  <si>
+    <t>Futur</t>
   </si>
 </sst>
 </file>
@@ -141,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,20 +283,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,25 +324,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,70 +664,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD5957-968C-4BBC-9DE2-DFE9A1FD1D42}">
-  <dimension ref="C6:Q12"/>
+  <dimension ref="C6:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="16"/>
-      <c r="D6" s="15" t="s">
+    <row r="6" spans="3:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="7" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -754,28 +735,26 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="3:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -783,37 +762,35 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+    <row r="10" spans="3:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
@@ -828,35 +805,15 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="3:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:M9"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
